--- a/01.byd-DataFactory/1.ArchitectureDossier/artifacts/03.non-functional-requirements/BYD-DF_NonFunctionalRequiremetns_v01.00.xlsx
+++ b/01.byd-DataFactory/1.ArchitectureDossier/artifacts/03.non-functional-requirements/BYD-DF_NonFunctionalRequiremetns_v01.00.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SWilbert/byd-all-documentation/01.byd-DataFactory/1.ArchitectureDossier/artifacts/03.non-functional-requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B800EB34-F48F-A04A-A8FC-B6B18C69C7D1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D9C891-40E0-8640-AB1F-CE0ABFDF275E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="00 - Technical Parameter" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'00 - Technical Parameter'!$B$5:$F$57</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'02-NONFUNCTIONALREQUIREMENTS'!$A$4:$B$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'02-NONFUNCTIONALREQUIREMENTS'!$A$4:$B$96</definedName>
     <definedName name="AREA">'00 - Technical Parameter'!$D$6:$D$57</definedName>
     <definedName name="CATEGORY">'00 - Technical Parameter'!#REF!</definedName>
     <definedName name="CRITICITY">'00 - Technical Parameter'!$H$6:$H$10</definedName>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="190">
   <si>
     <t>Prefix</t>
   </si>
@@ -233,15 +233,9 @@
     <t>Standards</t>
   </si>
   <si>
-    <t>Directives du Groupe Vinci Autoroutes</t>
-  </si>
-  <si>
     <t>Legislation en vigueur</t>
   </si>
   <si>
-    <t>Intégration du système d'information Vinci Autoroutes</t>
-  </si>
-  <si>
     <t>Exécution</t>
   </si>
   <si>
@@ -269,9 +263,6 @@
     <t xml:space="preserve"> promouvoir le couplage faible entre composants (internes et externes)</t>
   </si>
   <si>
-    <t>absorber un pic de charge correspondant à **25% ** de la charge totale concentrée sur un pic d'1heure.</t>
-  </si>
-  <si>
     <t>accueillir  des utilisateurs **actifs/concurrents**   à hauteur de 1% des utilisateurs potentiels</t>
   </si>
   <si>
@@ -290,9 +281,6 @@
     <t>programmer des plages de maintenance d'une durée de 4h par mois</t>
   </si>
   <si>
-    <t>proposer une plage de service remontant une disponibilité aux heures de bureau  en dehors des interruptions pour maintenance programmée</t>
-  </si>
-  <si>
     <t>doit implémenter une chaine d'intégration et de déploiement continue (DEVOPS - CI/CD)afin de permettre un temps de mise sur le marché (TTM) optimisé.</t>
   </si>
   <si>
@@ -329,30 +317,12 @@
     <t>Categorie</t>
   </si>
   <si>
-    <t>Directives du Groupe VINCI</t>
-  </si>
-  <si>
     <t>BYD-DF</t>
   </si>
   <si>
-    <t>être testé avec un affichage de ses écrans WEB avec le navigateur **Chrome** Version XX sur Windows YY  (64 Bits).</t>
-  </si>
-  <si>
-    <t>permettre l'affichage de ses écrans WEB avec le navigateur **Chrome** Version XX  sur Windows ZZ  (64 Bits)</t>
-  </si>
-  <si>
-    <t>être testé avec un affichage de ses écrans WEB avec le navigateur **Firefox** Version XX sur Windows YY  (64 Bits).</t>
-  </si>
-  <si>
-    <t>être testé avec un affichage de ses écrans WEB avec le navigateur **Safari** Version XX sur MacOs.</t>
-  </si>
-  <si>
     <t xml:space="preserve">accueillir  YYYY utilisateurs **potentiels**  </t>
   </si>
   <si>
-    <t xml:space="preserve">reposer sur un référentiel des identités fourni par un tiers externe ( OpenID Connect) pour l'ensemble de ses utilisateurs (Interne/Externe) (Authentification: Identification de haut niveau : Accès à l'application) </t>
-  </si>
-  <si>
     <t>reposer sur le protocole https (Combinaison entre HTTP et un protocole de chiffrement) pour opérer ses échanges entre les clients et le serveur.</t>
   </si>
   <si>
@@ -482,9 +452,6 @@
     <t>041</t>
   </si>
   <si>
-    <t>042</t>
-  </si>
-  <si>
     <t>043</t>
   </si>
   <si>
@@ -621,6 +588,30 @@
   </si>
   <si>
     <t>088</t>
+  </si>
+  <si>
+    <t>être testé avec un affichage de ses écrans WEB avec le navigateur **Safari** Version 12 sur MacOs Mojave.</t>
+  </si>
+  <si>
+    <t>être testé avec un affichage de ses écrans WEB avec le navigateur **Firefox** Version 68 sur Windows 10  (64 Bits).</t>
+  </si>
+  <si>
+    <t>permettre l'affichage de ses écrans WEB avec le navigateur **Chrome** Version 75.0. sur Windows 10  (64 Bits).</t>
+  </si>
+  <si>
+    <t>proposer une plage de service remontant une disponibilité  correspondant a un SLA de 99.9% en dehors des interruptions pour maintenance programmée</t>
+  </si>
+  <si>
+    <t>absorber un pic de charge correspondant à **25%** de la charge totale concentrée sur un pic d'1heure.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reposer sur un référentiel des identités fourni par un tiers externe (OpenID Connect) pour l'ensemble de ses utilisateurs (Interne/Externe) (Authentification: Identification de haut niveau : Accès à l'application) </t>
+  </si>
+  <si>
+    <t>Intégration du système d'information  SIXENSE</t>
+  </si>
+  <si>
+    <t>Directives du Groupe SIXENSE</t>
   </si>
 </sst>
 </file>
@@ -1842,8 +1833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="161" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView showRuler="0" topLeftCell="C1" zoomScale="161" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1869,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -1891,7 +1882,7 @@
         <v>25</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H5" s="43" t="s">
         <v>48</v>
@@ -1902,7 +1893,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>61</v>
@@ -1923,7 +1914,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>9</v>
@@ -1936,7 +1927,7 @@
         <v>Qualité\Exécution\Capacité</v>
       </c>
       <c r="H7" s="45" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="24" x14ac:dyDescent="0.2">
@@ -1947,14 +1938,14 @@
         <v>19</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>95</v>
+        <v>189</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>37</v>
       </c>
       <c r="F8" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>Contrainte\Metier\Directives du Groupe VINCI</v>
+        <v>Contrainte\Metier\Directives du Groupe SIXENSE</v>
       </c>
       <c r="H8" s="45" t="s">
         <v>50</v>
@@ -1965,7 +1956,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>7</v>
@@ -2003,7 +1994,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>13</v>
@@ -2016,7 +2007,7 @@
         <v>Qualité\Exécution\Fiabilité</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="B12" s="10" t="s">
         <v>18</v>
       </c>
@@ -2024,14 +2015,14 @@
         <v>20</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>65</v>
+        <v>188</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F12" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>Contrainte\Technique\Intégration du système d'information Vinci Autoroutes</v>
+        <v>Contrainte\Technique\Intégration du système d'information  SIXENSE</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -2039,7 +2030,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>12</v>
@@ -2078,7 +2069,7 @@
         <v>19</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>36</v>
@@ -2111,7 +2102,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>11</v>
@@ -2129,7 +2120,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>8</v>
@@ -2201,7 +2192,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>10</v>
@@ -2237,13 +2228,13 @@
         <v>14</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F24" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2592,11 +2583,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J97"/>
+  <dimension ref="A1:J96"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J3" sqref="J3:J41"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2604,7 +2595,7 @@
     <col min="1" max="1" width="7.33203125" style="23" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" style="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2.5" style="25" customWidth="1"/>
-    <col min="4" max="4" width="26.83203125" style="26" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" style="26" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" style="26" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="46.5" style="27" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" style="28" customWidth="1"/>
@@ -2615,7 +2606,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="12" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="13" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -2673,7 +2664,7 @@
     </row>
     <row r="5" spans="1:10" ht="37" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B5" s="51" t="s">
         <v>11</v>
@@ -2688,13 +2679,13 @@
         <v>BYD-DF_NFR_001</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G5" s="35" t="s">
         <v>51</v>
       </c>
       <c r="H5" s="41" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I5" s="37"/>
       <c r="J5" s="30" t="str">
@@ -2704,10 +2695,10 @@
     </row>
     <row r="6" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A6" s="32" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C6" s="33"/>
       <c r="D6" s="52" t="str">
@@ -2725,20 +2716,20 @@
         <v>51</v>
       </c>
       <c r="H6" s="41" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I6" s="37"/>
       <c r="J6" s="30" t="str">
-        <f t="shared" ref="J6:J63" si="0">IF(F6="","","|**"&amp;E6&amp;"**|Le _SYSTEME_ doit : "&amp;F6&amp;"|"&amp;G6&amp;"|"&amp;H6&amp;"|")</f>
+        <f t="shared" ref="J6:J62" si="0">IF(F6="","","|**"&amp;E6&amp;"**|Le _SYSTEME_ doit : "&amp;F6&amp;"|"&amp;G6&amp;"|"&amp;H6&amp;"|")</f>
         <v>|**BYD-DF_NFR_002**|Le _SYSTEME_ doit : permettre l'affichage de ses écrans WEB avec une résolution minimale de 1024*768|Hypothèse|ESSENTIEL|</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A7" s="32" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C7" s="33"/>
       <c r="D7" s="52" t="str">
@@ -2750,26 +2741,26 @@
         <v>BYD-DF_NFR_003</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>97</v>
+        <v>184</v>
       </c>
       <c r="G7" s="35" t="s">
         <v>51</v>
       </c>
       <c r="H7" s="41" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="I7" s="37"/>
       <c r="J7" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>|**BYD-DF_NFR_003**|Le _SYSTEME_ doit : être testé avec un affichage de ses écrans WEB avec le navigateur **Chrome** Version XX sur Windows YY  (64 Bits).|Hypothèse|ESSENTIEL|</v>
+        <v>|**BYD-DF_NFR_003**|Le _SYSTEME_ doit : permettre l'affichage de ses écrans WEB avec le navigateur **Chrome** Version 75.0. sur Windows 10  (64 Bits).|Hypothèse|OBLIGATOIRE|</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B8" s="51" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C8" s="33"/>
       <c r="D8" s="52" t="str">
@@ -2781,26 +2772,26 @@
         <v>BYD-DF_NFR_004</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>98</v>
+        <v>183</v>
       </c>
       <c r="G8" s="35" t="s">
         <v>51</v>
       </c>
       <c r="H8" s="41" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="I8" s="37"/>
       <c r="J8" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>|**BYD-DF_NFR_004**|Le _SYSTEME_ doit : permettre l'affichage de ses écrans WEB avec le navigateur **Chrome** Version XX  sur Windows ZZ  (64 Bits)|Hypothèse|OBLIGATOIRE|</v>
+        <f t="shared" ref="J8:J9" si="1">IF(F8="","","|**"&amp;E8&amp;"**|Le _SYSTEME_ doit : "&amp;F8&amp;"|"&amp;G8&amp;"|"&amp;H8&amp;"|")</f>
+        <v>|**BYD-DF_NFR_004**|Le _SYSTEME_ doit : être testé avec un affichage de ses écrans WEB avec le navigateur **Firefox** Version 68 sur Windows 10  (64 Bits).|Hypothèse|ESSENTIEL|</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A9" s="32" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B9" s="51" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C9" s="33"/>
       <c r="D9" s="52" t="str">
@@ -2812,26 +2803,26 @@
         <v>BYD-DF_NFR_005</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="G9" s="35" t="s">
         <v>51</v>
       </c>
       <c r="H9" s="41" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I9" s="37"/>
       <c r="J9" s="30" t="str">
-        <f t="shared" ref="J9:J10" si="1">IF(F9="","","|**"&amp;E9&amp;"**|Le _SYSTEME_ doit : "&amp;F9&amp;"|"&amp;G9&amp;"|"&amp;H9&amp;"|")</f>
-        <v>|**BYD-DF_NFR_005**|Le _SYSTEME_ doit : être testé avec un affichage de ses écrans WEB avec le navigateur **Firefox** Version XX sur Windows YY  (64 Bits).|Hypothèse|ESSENTIEL|</v>
+        <f t="shared" si="1"/>
+        <v>|**BYD-DF_NFR_005**|Le _SYSTEME_ doit : être testé avec un affichage de ses écrans WEB avec le navigateur **Safari** Version 12 sur MacOs Mojave.|Hypothèse|ESSENTIEL|</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A10" s="32" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B10" s="51" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C10" s="33"/>
       <c r="D10" s="52" t="str">
@@ -2843,38 +2834,38 @@
         <v>BYD-DF_NFR_006</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="G10" s="35" t="s">
         <v>51</v>
       </c>
       <c r="H10" s="41" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="I10" s="37"/>
       <c r="J10" s="30" t="str">
-        <f t="shared" si="1"/>
-        <v>|**BYD-DF_NFR_006**|Le _SYSTEME_ doit : être testé avec un affichage de ses écrans WEB avec le navigateur **Safari** Version XX sur MacOs.|Hypothèse|ESSENTIEL|</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="24" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>|**BYD-DF_NFR_006**|Le _SYSTEME_ doit : permettre l'affichage de ses écrans WEB dans une approche "responsive" permettant la gestion des orientations 'Tablette'|Hypothèse|OBLIGATOIRE|</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="20" x14ac:dyDescent="0.2">
       <c r="A11" s="32" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B11" s="51" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="C11" s="33"/>
       <c r="D11" s="52" t="str">
         <f>IF(B11="","",VLOOKUP(B11,'00 - Technical Parameter'!$D$6:$F$57,3))</f>
-        <v>Qualité\Exécution\Utilisabilité</v>
+        <v>Qualité\Exécution\Intégrité</v>
       </c>
       <c r="E11" s="36" t="str">
         <f>IF(B11="","",'00 - Technical Parameter'!$B$3&amp;"_"&amp;$B$2&amp;"_"&amp;A11)</f>
         <v>BYD-DF_NFR_007</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="G11" s="35" t="s">
         <v>51</v>
@@ -2885,27 +2876,27 @@
       <c r="I11" s="37"/>
       <c r="J11" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>|**BYD-DF_NFR_007**|Le _SYSTEME_ doit : permettre l'affichage de ses écrans WEB dans une approche "responsive" permettant la gestion des orientations 'Tablette'|Hypothèse|OBLIGATOIRE|</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+        <v>|**BYD-DF_NFR_007**|Le _SYSTEME_ doit : permettre la ségrégation des données par client ("Multi-tenant")|Hypothèse|OBLIGATOIRE|</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A12" s="32" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B12" s="51" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C12" s="33"/>
       <c r="D12" s="52" t="str">
         <f>IF(B12="","",VLOOKUP(B12,'00 - Technical Parameter'!$D$6:$F$57,3))</f>
-        <v>Qualité\Exécution\Intégrité</v>
+        <v>Contrainte\Technique\Internationalisation</v>
       </c>
       <c r="E12" s="36" t="str">
         <f>IF(B12="","",'00 - Technical Parameter'!$B$3&amp;"_"&amp;$B$2&amp;"_"&amp;A12)</f>
         <v>BYD-DF_NFR_008</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="G12" s="35" t="s">
         <v>51</v>
@@ -2916,12 +2907,12 @@
       <c r="I12" s="37"/>
       <c r="J12" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>|**BYD-DF_NFR_008**|Le _SYSTEME_ doit : permettre la ségrégation des données par client ("Multi-tenant")|Hypothèse|OBLIGATOIRE|</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="24" x14ac:dyDescent="0.2">
+        <v>|**BYD-DF_NFR_008**|Le _SYSTEME_ doit : afficher l'ensemble des labels de ses interfaces en **français** par défaut|Hypothèse|OBLIGATOIRE|</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A13" s="32" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B13" s="51" t="s">
         <v>21</v>
@@ -2936,23 +2927,23 @@
         <v>BYD-DF_NFR_009</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="G13" s="35" t="s">
         <v>51</v>
       </c>
       <c r="H13" s="41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I13" s="37"/>
       <c r="J13" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>|**BYD-DF_NFR_009**|Le _SYSTEME_ doit : afficher l'ensemble des labels de ses interfaces en **français** par défaut|Hypothèse|OBLIGATOIRE|</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="36" x14ac:dyDescent="0.2">
+        <v>|**BYD-DF_NFR_009**|Le _SYSTEME_ doit : permettre l'affichage des labels de ses interfaces dans d'autres langues (Right-To-Left) au moyen du chargement d'un fichier de configuration sur le serveur, selon la configuration du navigateur appelant.|Hypothèse|OPTIONNEL|</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A14" s="32" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B14" s="51" t="s">
         <v>21</v>
@@ -2967,131 +2958,131 @@
         <v>BYD-DF_NFR_010</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="G14" s="35" t="s">
         <v>51</v>
       </c>
       <c r="H14" s="41" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="I14" s="37"/>
       <c r="J14" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>|**BYD-DF_NFR_010**|Le _SYSTEME_ doit : permettre l'affichage des labels de ses interfaces dans d'autres langues (Right-To-Left) au moyen du chargement d'un fichier de configuration sur le serveur, selon la configuration du navigateur appelant.|Hypothèse|OPTIONNEL|</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="24" x14ac:dyDescent="0.2">
+        <v>|**BYD-DF_NFR_010**|Le _SYSTEME_ doit : stocker et afficher les éléments journalisés sur la plateforme en **anglais**|Hypothèse|ESSENTIEL|</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="20" x14ac:dyDescent="0.2">
       <c r="A15" s="32" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B15" s="51" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C15" s="33"/>
       <c r="D15" s="52" t="str">
         <f>IF(B15="","",VLOOKUP(B15,'00 - Technical Parameter'!$D$6:$F$57,3))</f>
-        <v>Contrainte\Technique\Internationalisation</v>
+        <v>Qualité\Exécution\Intégrité</v>
       </c>
       <c r="E15" s="36" t="str">
         <f>IF(B15="","",'00 - Technical Parameter'!$B$3&amp;"_"&amp;$B$2&amp;"_"&amp;A15)</f>
         <v>BYD-DF_NFR_011</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G15" s="35" t="s">
         <v>51</v>
       </c>
       <c r="H15" s="41" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="I15" s="37"/>
       <c r="J15" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>|**BYD-DF_NFR_011**|Le _SYSTEME_ doit : stocker et afficher les éléments journalisés sur la plateforme en **anglais**|Hypothèse|ESSENTIEL|</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+        <v>|**BYD-DF_NFR_011**|Le _SYSTEME_ doit : stocker toutes les information de date/temps  selon la zone  **UTC Zero**|Hypothèse|OBLIGATOIRE|</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A16" s="32" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B16" s="51" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="52" t="str">
         <f>IF(B16="","",VLOOKUP(B16,'00 - Technical Parameter'!$D$6:$F$57,3))</f>
-        <v>Qualité\Exécution\Intégrité</v>
+        <v>Qualité\Exécution\Utilisabilité</v>
       </c>
       <c r="E16" s="36" t="str">
         <f>IF(B16="","",'00 - Technical Parameter'!$B$3&amp;"_"&amp;$B$2&amp;"_"&amp;A16)</f>
         <v>BYD-DF_NFR_012</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G16" s="35" t="s">
         <v>51</v>
       </c>
       <c r="H16" s="41" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="I16" s="37"/>
       <c r="J16" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>|**BYD-DF_NFR_012**|Le _SYSTEME_ doit : stocker toutes les information de date/temps  selon la zone  **UTC Zero**|Hypothèse|OBLIGATOIRE|</v>
+        <v>|**BYD-DF_NFR_012**|Le _SYSTEME_ doit : Afficher les informations de date/temps dans le fuseau horaire configuré sur le navigateur de l'utilisateur.|Hypothèse|ESSENTIEL|</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A17" s="32" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B17" s="51" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="C17" s="33"/>
       <c r="D17" s="52" t="str">
         <f>IF(B17="","",VLOOKUP(B17,'00 - Technical Parameter'!$D$6:$F$57,3))</f>
-        <v>Qualité\Exécution\Utilisabilité</v>
+        <v>Qualité\Exécution\Intégrité</v>
       </c>
       <c r="E17" s="36" t="str">
         <f>IF(B17="","",'00 - Technical Parameter'!$B$3&amp;"_"&amp;$B$2&amp;"_"&amp;A17)</f>
         <v>BYD-DF_NFR_013</v>
       </c>
       <c r="F17" s="34" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="G17" s="35" t="s">
         <v>51</v>
       </c>
       <c r="H17" s="41" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="I17" s="37"/>
       <c r="J17" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>|**BYD-DF_NFR_013**|Le _SYSTEME_ doit : Afficher les informations de date/temps dans le fuseau horaire configuré sur le navigateur de l'utilisateur.|Hypothèse|ESSENTIEL|</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="24" x14ac:dyDescent="0.2">
+        <v>|**BYD-DF_NFR_013**|Le _SYSTEME_ doit : stocker les informations de date/temps au format **ISO 8601**  Exemple : **2017-09-15T17:27:00Z**|Hypothèse|OBLIGATOIRE|</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A18" s="32" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B18" s="51" t="s">
-        <v>12</v>
+        <v>189</v>
       </c>
       <c r="C18" s="33"/>
       <c r="D18" s="52" t="str">
         <f>IF(B18="","",VLOOKUP(B18,'00 - Technical Parameter'!$D$6:$F$57,3))</f>
-        <v>Qualité\Exécution\Intégrité</v>
+        <v>Contrainte\Metier\Directives du Groupe SIXENSE</v>
       </c>
       <c r="E18" s="36" t="str">
         <f>IF(B18="","",'00 - Technical Parameter'!$B$3&amp;"_"&amp;$B$2&amp;"_"&amp;A18)</f>
         <v>BYD-DF_NFR_014</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G18" s="35" t="s">
         <v>51</v>
@@ -3102,27 +3093,27 @@
       <c r="I18" s="37"/>
       <c r="J18" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>|**BYD-DF_NFR_014**|Le _SYSTEME_ doit : stocker les informations de date/temps au format **ISO 8601**  Exemple : **2017-09-15T17:27:00Z**|Hypothèse|OBLIGATOIRE|</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="36" x14ac:dyDescent="0.2">
+        <v>|**BYD-DF_NFR_014**|Le _SYSTEME_ doit : doit être localisé en Union Européenne|Hypothèse|OBLIGATOIRE|</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A19" s="32" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B19" s="51" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="C19" s="33"/>
       <c r="D19" s="52" t="str">
         <f>IF(B19="","",VLOOKUP(B19,'00 - Technical Parameter'!$D$6:$F$57,3))</f>
-        <v>Contrainte\Metier\Directives du Groupe VINCI</v>
+        <v>Qualité\Exécution\Intégrité</v>
       </c>
       <c r="E19" s="36" t="str">
         <f>IF(B19="","",'00 - Technical Parameter'!$B$3&amp;"_"&amp;$B$2&amp;"_"&amp;A19)</f>
         <v>BYD-DF_NFR_015</v>
       </c>
       <c r="F19" s="34" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="G19" s="35" t="s">
         <v>51</v>
@@ -3133,12 +3124,12 @@
       <c r="I19" s="37"/>
       <c r="J19" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>|**BYD-DF_NFR_015**|Le _SYSTEME_ doit : doit être localisé en Union Européenne|Hypothèse|OBLIGATOIRE|</v>
+        <v>|**BYD-DF_NFR_015**|Le _SYSTEME_ doit : stocker les informations de codes pays  au format **ISO  3166**  Exemple : **fr**|Hypothèse|OBLIGATOIRE|</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A20" s="32" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B20" s="51" t="s">
         <v>12</v>
@@ -3153,7 +3144,7 @@
         <v>BYD-DF_NFR_016</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G20" s="35" t="s">
         <v>51</v>
@@ -3164,27 +3155,27 @@
       <c r="I20" s="37"/>
       <c r="J20" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>|**BYD-DF_NFR_016**|Le _SYSTEME_ doit : stocker les informations de codes pays  au format **ISO  3166**  Exemple : **fr**|Hypothèse|OBLIGATOIRE|</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="24" x14ac:dyDescent="0.2">
+        <v>|**BYD-DF_NFR_016**|Le _SYSTEME_ doit : stocker les informations d'unités monétaires au format **ISO 4217**  Exemple : **EUR**|Hypothèse|OBLIGATOIRE|</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="20" x14ac:dyDescent="0.2">
       <c r="A21" s="32" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B21" s="51" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C21" s="33"/>
       <c r="D21" s="52" t="str">
         <f>IF(B21="","",VLOOKUP(B21,'00 - Technical Parameter'!$D$6:$F$57,3))</f>
-        <v>Qualité\Exécution\Intégrité</v>
+        <v>Qualité\Exécution\Capacité</v>
       </c>
       <c r="E21" s="36" t="str">
         <f>IF(B21="","",'00 - Technical Parameter'!$B$3&amp;"_"&amp;$B$2&amp;"_"&amp;A21)</f>
         <v>BYD-DF_NFR_017</v>
       </c>
       <c r="F21" s="34" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G21" s="35" t="s">
         <v>51</v>
@@ -3195,12 +3186,12 @@
       <c r="I21" s="37"/>
       <c r="J21" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>|**BYD-DF_NFR_017**|Le _SYSTEME_ doit : stocker les informations d'unités monétaires au format **ISO 4217**  Exemple : **EUR**|Hypothèse|OBLIGATOIRE|</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+        <v>|**BYD-DF_NFR_017**|Le _SYSTEME_ doit : accueillir  YYYY utilisateurs **potentiels**  |Hypothèse|OBLIGATOIRE|</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" s="32" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B22" s="51" t="s">
         <v>9</v>
@@ -3215,23 +3206,23 @@
         <v>BYD-DF_NFR_018</v>
       </c>
       <c r="F22" s="34" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="G22" s="35" t="s">
         <v>51</v>
       </c>
       <c r="H22" s="41" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="I22" s="37"/>
       <c r="J22" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>|**BYD-DF_NFR_018**|Le _SYSTEME_ doit : accueillir  YYYY utilisateurs **potentiels**  |Hypothèse|OBLIGATOIRE|</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+        <v>|**BYD-DF_NFR_018**|Le _SYSTEME_ doit : accueillir  des utilisateurs **courants** (Connectés au système, mais pas forcément actifs) à hauteur de 10% des utilisateurs potentiels|Hypothèse|ESSENTIEL|</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A23" s="32" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B23" s="51" t="s">
         <v>9</v>
@@ -3246,23 +3237,23 @@
         <v>BYD-DF_NFR_019</v>
       </c>
       <c r="F23" s="34" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G23" s="35" t="s">
         <v>51</v>
       </c>
       <c r="H23" s="41" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I23" s="37"/>
       <c r="J23" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>|**BYD-DF_NFR_019**|Le _SYSTEME_ doit : accueillir  des utilisateurs **courants** (Connectés au système, mais pas forcément actifs) à hauteur de 10% des utilisateurs potentiels|Hypothèse|ESSENTIEL|</v>
+        <v>|**BYD-DF_NFR_019**|Le _SYSTEME_ doit : accueillir  des utilisateurs **actifs/concurrents**   à hauteur de 1% des utilisateurs potentiels|Hypothèse|ESSENTIEL|</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A24" s="32" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B24" s="51" t="s">
         <v>9</v>
@@ -3283,32 +3274,32 @@
         <v>51</v>
       </c>
       <c r="H24" s="41" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="I24" s="37"/>
       <c r="J24" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>|**BYD-DF_NFR_020**|Le _SYSTEME_ doit : accueillir  des utilisateurs **actifs/concurrents**   à hauteur de 1% des utilisateurs potentiels|Hypothèse|ESSENTIEL|</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="24" x14ac:dyDescent="0.2">
+        <v>|**BYD-DF_NFR_020**|Le _SYSTEME_ doit : pouvoir répondre à **2 sollicitations** (API) concurrentes par des systèmes externes |Hypothèse|OBLIGATOIRE|</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A25" s="32" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B25" s="51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C25" s="33"/>
       <c r="D25" s="52" t="str">
         <f>IF(B25="","",VLOOKUP(B25,'00 - Technical Parameter'!$D$6:$F$57,3))</f>
-        <v>Qualité\Exécution\Capacité</v>
+        <v>Qualité\Exécution\Sécurité</v>
       </c>
       <c r="E25" s="36" t="str">
         <f>IF(B25="","",'00 - Technical Parameter'!$B$3&amp;"_"&amp;$B$2&amp;"_"&amp;A25)</f>
         <v>BYD-DF_NFR_021</v>
       </c>
       <c r="F25" s="34" t="s">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="G25" s="35" t="s">
         <v>51</v>
@@ -3319,12 +3310,12 @@
       <c r="I25" s="37"/>
       <c r="J25" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>|**BYD-DF_NFR_021**|Le _SYSTEME_ doit : pouvoir répondre à **2 sollicitations** (API) concurrentes par des systèmes externes |Hypothèse|OBLIGATOIRE|</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="36" x14ac:dyDescent="0.2">
+        <v>|**BYD-DF_NFR_021**|Le _SYSTEME_ doit : reposer sur un référentiel des identités fourni par un tiers externe (OpenID Connect) pour l'ensemble de ses utilisateurs (Interne/Externe) (Authentification: Identification de haut niveau : Accès à l'application) |Hypothèse|OBLIGATOIRE|</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A26" s="32" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B26" s="51" t="s">
         <v>10</v>
@@ -3339,7 +3330,7 @@
         <v>BYD-DF_NFR_022</v>
       </c>
       <c r="F26" s="34" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="G26" s="35" t="s">
         <v>51</v>
@@ -3350,12 +3341,12 @@
       <c r="I26" s="37"/>
       <c r="J26" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>|**BYD-DF_NFR_022**|Le _SYSTEME_ doit : reposer sur un référentiel des identités fourni par un tiers externe ( OpenID Connect) pour l'ensemble de ses utilisateurs (Interne/Externe) (Authentification: Identification de haut niveau : Accès à l'application) |Hypothèse|OBLIGATOIRE|</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="24" x14ac:dyDescent="0.2">
+        <v>|**BYD-DF_NFR_022**|Le _SYSTEME_ doit : reposer sur un gestionnaire  des identités interne au SYSTEME permettant d'associer des permissions à un utilisateur|Hypothèse|OBLIGATOIRE|</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A27" s="32" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B27" s="51" t="s">
         <v>10</v>
@@ -3370,7 +3361,7 @@
         <v>BYD-DF_NFR_023</v>
       </c>
       <c r="F27" s="34" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="G27" s="35" t="s">
         <v>51</v>
@@ -3381,27 +3372,27 @@
       <c r="I27" s="37"/>
       <c r="J27" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>|**BYD-DF_NFR_023**|Le _SYSTEME_ doit : reposer sur un gestionnaire  des identités interne au SYSTEME permettant d'associer des permissions à un utilisateur|Hypothèse|OBLIGATOIRE|</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+        <v>|**BYD-DF_NFR_023**|Le _SYSTEME_ doit : reposer sur le protocole https (Combinaison entre HTTP et un protocole de chiffrement) pour opérer ses échanges entre les clients et le serveur.|Hypothèse|OBLIGATOIRE|</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A28" s="32" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B28" s="51" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C28" s="33"/>
       <c r="D28" s="52" t="str">
         <f>IF(B28="","",VLOOKUP(B28,'00 - Technical Parameter'!$D$6:$F$57,3))</f>
-        <v>Qualité\Exécution\Sécurité</v>
+        <v>Qualité\Exécution\Disponibilité</v>
       </c>
       <c r="E28" s="36" t="str">
         <f>IF(B28="","",'00 - Technical Parameter'!$B$3&amp;"_"&amp;$B$2&amp;"_"&amp;A28)</f>
         <v>BYD-DF_NFR_024</v>
       </c>
       <c r="F28" s="34" t="s">
-        <v>103</v>
+        <v>185</v>
       </c>
       <c r="G28" s="35" t="s">
         <v>51</v>
@@ -3412,12 +3403,12 @@
       <c r="I28" s="37"/>
       <c r="J28" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>|**BYD-DF_NFR_024**|Le _SYSTEME_ doit : reposer sur le protocole https (Combinaison entre HTTP et un protocole de chiffrement) pour opérer ses échanges entre les clients et le serveur.|Hypothèse|OBLIGATOIRE|</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+        <v>|**BYD-DF_NFR_024**|Le _SYSTEME_ doit : proposer une plage de service remontant une disponibilité  correspondant a un SLA de 99.9% en dehors des interruptions pour maintenance programmée|Hypothèse|OBLIGATOIRE|</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="20" x14ac:dyDescent="0.2">
       <c r="A29" s="32" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B29" s="51" t="s">
         <v>7</v>
@@ -3432,54 +3423,54 @@
         <v>BYD-DF_NFR_025</v>
       </c>
       <c r="F29" s="34" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G29" s="35" t="s">
         <v>51</v>
       </c>
       <c r="H29" s="41" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="I29" s="37"/>
       <c r="J29" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>|**BYD-DF_NFR_025**|Le _SYSTEME_ doit : proposer une plage de service remontant une disponibilité aux heures de bureau  en dehors des interruptions pour maintenance programmée|Hypothèse|OBLIGATOIRE|</v>
+        <v>|**BYD-DF_NFR_025**|Le _SYSTEME_ doit : programmer des plages de maintenance d'une durée de 4h par mois|Hypothèse|ESSENTIEL|</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="20" x14ac:dyDescent="0.2">
       <c r="A30" s="32" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B30" s="51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" s="33"/>
       <c r="D30" s="52" t="str">
         <f>IF(B30="","",VLOOKUP(B30,'00 - Technical Parameter'!$D$6:$F$57,3))</f>
-        <v>Qualité\Exécution\Disponibilité</v>
+        <v>Qualité\Exécution\Performance</v>
       </c>
       <c r="E30" s="36" t="str">
         <f>IF(B30="","",'00 - Technical Parameter'!$B$3&amp;"_"&amp;$B$2&amp;"_"&amp;A30)</f>
         <v>BYD-DF_NFR_026</v>
       </c>
       <c r="F30" s="34" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="G30" s="35" t="s">
         <v>51</v>
       </c>
       <c r="H30" s="41" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I30" s="37"/>
       <c r="J30" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>|**BYD-DF_NFR_026**|Le _SYSTEME_ doit : programmer des plages de maintenance d'une durée de 4h par mois|Hypothèse|ESSENTIEL|</v>
+        <v>|**BYD-DF_NFR_026**|Le _SYSTEME_ doit : authentifier un utilisateur anonyme en 30 secondes|Hypothèse|ESSENTIEL|</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="20" x14ac:dyDescent="0.2">
       <c r="A31" s="32" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B31" s="51" t="s">
         <v>8</v>
@@ -3494,23 +3485,23 @@
         <v>BYD-DF_NFR_027</v>
       </c>
       <c r="F31" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G31" s="35" t="s">
         <v>51</v>
       </c>
       <c r="H31" s="41" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I31" s="37"/>
       <c r="J31" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>|**BYD-DF_NFR_027**|Le _SYSTEME_ doit : authentifier un utilisateur anonyme en 30 secondes|Hypothèse|ESSENTIEL|</v>
+        <v>|**BYD-DF_NFR_027**|Le _SYSTEME_ doit : afficher 90% des pages Web en moins de 3 secondes|Hypothèse|ESSENTIEL|</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="20" x14ac:dyDescent="0.2">
       <c r="A32" s="32" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B32" s="51" t="s">
         <v>8</v>
@@ -3525,54 +3516,54 @@
         <v>BYD-DF_NFR_028</v>
       </c>
       <c r="F32" s="34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G32" s="35" t="s">
         <v>51</v>
       </c>
       <c r="H32" s="41" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I32" s="37"/>
       <c r="J32" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>|**BYD-DF_NFR_028**|Le _SYSTEME_ doit : afficher 90% des pages Web en moins de 3 secondes|Hypothèse|ESSENTIEL|</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+        <v>|**BYD-DF_NFR_028**|Le _SYSTEME_ doit : afficher les pages web en moins de 15 secondes|Hypothèse|ESSENTIEL|</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A33" s="32" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B33" s="51" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C33" s="33"/>
       <c r="D33" s="52" t="str">
         <f>IF(B33="","",VLOOKUP(B33,'00 - Technical Parameter'!$D$6:$F$57,3))</f>
-        <v>Qualité\Exécution\Performance</v>
+        <v>Qualité\Exécution\Intégrité</v>
       </c>
       <c r="E33" s="36" t="str">
         <f>IF(B33="","",'00 - Technical Parameter'!$B$3&amp;"_"&amp;$B$2&amp;"_"&amp;A33)</f>
         <v>BYD-DF_NFR_029</v>
       </c>
       <c r="F33" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G33" s="35" t="s">
         <v>51</v>
       </c>
       <c r="H33" s="41" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I33" s="37"/>
       <c r="J33" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>|**BYD-DF_NFR_029**|Le _SYSTEME_ doit : afficher les pages web en moins de 15 secondes|Hypothèse|ESSENTIEL|</v>
+        <v>|**BYD-DF_NFR_029**|Le _SYSTEME_ doit : mettre en place des mécanismes permettant d'optimiser la qualité des données entrantes (Contrôle d'intégrité, Liste de valeurs finies)|Hypothèse|ESSENTIEL|</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A34" s="32" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B34" s="51" t="s">
         <v>12</v>
@@ -3587,38 +3578,38 @@
         <v>BYD-DF_NFR_030</v>
       </c>
       <c r="F34" s="34" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="G34" s="35" t="s">
         <v>51</v>
       </c>
       <c r="H34" s="41" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="I34" s="37"/>
       <c r="J34" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>|**BYD-DF_NFR_030**|Le _SYSTEME_ doit : mettre en place des mécanismes permettant d'optimiser la qualité des données entrantes (Contrôle d'intégrité, Liste de valeurs finies)|Hypothèse|ESSENTIEL|</v>
+        <v>|**BYD-DF_NFR_030**|Le _SYSTEME_ doit : journaliser les évènements 'métier' (opérations sur les données) à des fins de traçabilité|Hypothèse|OBLIGATOIRE|</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A35" s="32" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B35" s="51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C35" s="33"/>
       <c r="D35" s="52" t="str">
         <f>IF(B35="","",VLOOKUP(B35,'00 - Technical Parameter'!$D$6:$F$57,3))</f>
-        <v>Qualité\Exécution\Intégrité</v>
+        <v>Qualité\Exécution\Manageabilité</v>
       </c>
       <c r="E35" s="36" t="str">
         <f>IF(B35="","",'00 - Technical Parameter'!$B$3&amp;"_"&amp;$B$2&amp;"_"&amp;A35)</f>
         <v>BYD-DF_NFR_031</v>
       </c>
       <c r="F35" s="34" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="G35" s="35" t="s">
         <v>51</v>
@@ -3629,89 +3620,89 @@
       <c r="I35" s="37"/>
       <c r="J35" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>|**BYD-DF_NFR_031**|Le _SYSTEME_ doit : journaliser les évènements 'métier' (opérations sur les données) à des fins de traçabilité|Hypothèse|OBLIGATOIRE|</v>
+        <v>|**BYD-DF_NFR_031**|Le _SYSTEME_ doit :  promouvoir le couplage faible entre composants (internes et externes)|Hypothèse|OBLIGATOIRE|</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A36" s="32" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B36" s="51" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C36" s="33"/>
       <c r="D36" s="52" t="str">
         <f>IF(B36="","",VLOOKUP(B36,'00 - Technical Parameter'!$D$6:$F$57,3))</f>
-        <v>Qualité\Exécution\Manageabilité</v>
+        <v>Qualité\Exécution\Performance</v>
       </c>
       <c r="E36" s="36" t="str">
         <f>IF(B36="","",'00 - Technical Parameter'!$B$3&amp;"_"&amp;$B$2&amp;"_"&amp;A36)</f>
         <v>BYD-DF_NFR_032</v>
       </c>
       <c r="F36" s="34" t="s">
-        <v>74</v>
+        <v>186</v>
       </c>
       <c r="G36" s="35" t="s">
         <v>51</v>
       </c>
       <c r="H36" s="41" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="I36" s="37"/>
       <c r="J36" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>|**BYD-DF_NFR_032**|Le _SYSTEME_ doit :  promouvoir le couplage faible entre composants (internes et externes)|Hypothèse|OBLIGATOIRE|</v>
+        <v>|**BYD-DF_NFR_032**|Le _SYSTEME_ doit : absorber un pic de charge correspondant à **25%** de la charge totale concentrée sur un pic d'1heure.|Hypothèse|ESSENTIEL|</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A37" s="32" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B37" s="51" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C37" s="33"/>
       <c r="D37" s="52" t="str">
         <f>IF(B37="","",VLOOKUP(B37,'00 - Technical Parameter'!$D$6:$F$57,3))</f>
-        <v>Qualité\Exécution\Performance</v>
+        <v>Qualité\Conception\Portabilité</v>
       </c>
       <c r="E37" s="36" t="str">
         <f>IF(B37="","",'00 - Technical Parameter'!$B$3&amp;"_"&amp;$B$2&amp;"_"&amp;A37)</f>
         <v>BYD-DF_NFR_033</v>
       </c>
       <c r="F37" s="34" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G37" s="35" t="s">
         <v>51</v>
       </c>
       <c r="H37" s="41" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="I37" s="37"/>
       <c r="J37" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>|**BYD-DF_NFR_033**|Le _SYSTEME_ doit : absorber un pic de charge correspondant à **25% ** de la charge totale concentrée sur un pic d'1heure.|Hypothèse|ESSENTIEL|</v>
+        <v>|**BYD-DF_NFR_033**|Le _SYSTEME_ doit : faciliter la portabilité de la solution vers différents systèmes d'hébergement (Fournisseur Cloud, Sur site)|Hypothèse|OBLIGATOIRE|</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A38" s="32" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B38" s="51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C38" s="33"/>
       <c r="D38" s="52" t="str">
         <f>IF(B38="","",VLOOKUP(B38,'00 - Technical Parameter'!$D$6:$F$57,3))</f>
-        <v>Qualité\Conception\Portabilité</v>
+        <v>Qualité\Conception\Scalabilité</v>
       </c>
       <c r="E38" s="36" t="str">
         <f>IF(B38="","",'00 - Technical Parameter'!$B$3&amp;"_"&amp;$B$2&amp;"_"&amp;A38)</f>
         <v>BYD-DF_NFR_034</v>
       </c>
       <c r="F38" s="34" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G38" s="35" t="s">
         <v>51</v>
@@ -3722,20 +3713,20 @@
       <c r="I38" s="37"/>
       <c r="J38" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>|**BYD-DF_NFR_034**|Le _SYSTEME_ doit : faciliter la portabilité de la solution vers différents systèmes d'hébergement (Fournisseur Cloud, Sur site)|Hypothèse|OBLIGATOIRE|</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="24" x14ac:dyDescent="0.2">
+        <v>|**BYD-DF_NFR_034**|Le _SYSTEME_ doit : permettre d'adapter sa configuration à la charge utilisateurs/systèmes (Croissance/Décroissance)|Hypothèse|OBLIGATOIRE|</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="20" x14ac:dyDescent="0.2">
       <c r="A39" s="32" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B39" s="51" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C39" s="33"/>
       <c r="D39" s="52" t="str">
         <f>IF(B39="","",VLOOKUP(B39,'00 - Technical Parameter'!$D$6:$F$57,3))</f>
-        <v>Qualité\Conception\Scalabilité</v>
+        <v>Qualité\Exécution\Intégrité</v>
       </c>
       <c r="E39" s="36" t="str">
         <f>IF(B39="","",'00 - Technical Parameter'!$B$3&amp;"_"&amp;$B$2&amp;"_"&amp;A39)</f>
@@ -3753,27 +3744,27 @@
       <c r="I39" s="37"/>
       <c r="J39" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>|**BYD-DF_NFR_035**|Le _SYSTEME_ doit : permettre d'adapter sa configuration à la charge utilisateurs/systèmes (Croissance/Décroissance)|Hypothèse|OBLIGATOIRE|</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+        <v>|**BYD-DF_NFR_035**|Le _SYSTEME_ doit : journaliser les évènements techniques|Hypothèse|OBLIGATOIRE|</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A40" s="32" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B40" s="51" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C40" s="33"/>
       <c r="D40" s="52" t="str">
         <f>IF(B40="","",VLOOKUP(B40,'00 - Technical Parameter'!$D$6:$F$57,3))</f>
-        <v>Qualité\Exécution\Intégrité</v>
+        <v>Qualité\Exécution\Sécurité</v>
       </c>
       <c r="E40" s="36" t="str">
         <f>IF(B40="","",'00 - Technical Parameter'!$B$3&amp;"_"&amp;$B$2&amp;"_"&amp;A40)</f>
         <v>BYD-DF_NFR_036</v>
       </c>
       <c r="F40" s="34" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G40" s="35" t="s">
         <v>51</v>
@@ -3784,43 +3775,37 @@
       <c r="I40" s="37"/>
       <c r="J40" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>|**BYD-DF_NFR_036**|Le _SYSTEME_ doit : journaliser les évènements techniques|Hypothèse|OBLIGATOIRE|</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="36" x14ac:dyDescent="0.2">
+        <v>|**BYD-DF_NFR_036**|Le _SYSTEME_ doit : reposer sur un référentiel des identités fourni par Sixense Digital pour l'ensemble de des utilisateursd'aministration du produit  (Authentification: Identification de haut niveau : Accès à l'application) |Hypothèse|OBLIGATOIRE|</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="B41" s="51" t="s">
-        <v>10</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="B41" s="51"/>
       <c r="C41" s="33"/>
       <c r="D41" s="52" t="str">
         <f>IF(B41="","",VLOOKUP(B41,'00 - Technical Parameter'!$D$6:$F$57,3))</f>
-        <v>Qualité\Exécution\Sécurité</v>
+        <v/>
       </c>
       <c r="E41" s="36" t="str">
         <f>IF(B41="","",'00 - Technical Parameter'!$B$3&amp;"_"&amp;$B$2&amp;"_"&amp;A41)</f>
-        <v>BYD-DF_NFR_037</v>
-      </c>
-      <c r="F41" s="34" t="s">
-        <v>104</v>
-      </c>
+        <v/>
+      </c>
+      <c r="F41" s="34"/>
       <c r="G41" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="H41" s="41" t="s">
-        <v>49</v>
-      </c>
+      <c r="H41" s="41"/>
       <c r="I41" s="37"/>
       <c r="J41" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>|**BYD-DF_NFR_037**|Le _SYSTEME_ doit : reposer sur un référentiel des identités fourni par Sixense Digital pour l'ensemble de des utilisateursd'aministration du produit  (Authentification: Identification de haut niveau : Accès à l'application) |Hypothèse|OBLIGATOIRE|</v>
+        <v/>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="32" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B42" s="51"/>
       <c r="C42" s="33"/>
@@ -3845,7 +3830,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="32" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B43" s="51"/>
       <c r="C43" s="33"/>
@@ -3870,7 +3855,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="32" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B44" s="51"/>
       <c r="C44" s="33"/>
@@ -3895,7 +3880,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="32" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B45" s="51"/>
       <c r="C45" s="33"/>
@@ -3920,7 +3905,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="32" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B46" s="51"/>
       <c r="C46" s="33"/>
@@ -3945,7 +3930,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="32" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B47" s="51"/>
       <c r="C47" s="33"/>
@@ -3970,7 +3955,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="32" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B48" s="51"/>
       <c r="C48" s="33"/>
@@ -3995,7 +3980,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="32" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B49" s="51"/>
       <c r="C49" s="33"/>
@@ -4020,7 +4005,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="32" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B50" s="51"/>
       <c r="C50" s="33"/>
@@ -4045,7 +4030,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="32" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B51" s="51"/>
       <c r="C51" s="33"/>
@@ -4070,7 +4055,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="32" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B52" s="51"/>
       <c r="C52" s="33"/>
@@ -4095,7 +4080,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="32" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B53" s="51"/>
       <c r="C53" s="33"/>
@@ -4120,7 +4105,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="32" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B54" s="51"/>
       <c r="C54" s="33"/>
@@ -4145,7 +4130,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="32" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B55" s="51"/>
       <c r="C55" s="33"/>
@@ -4170,7 +4155,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="32" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B56" s="51"/>
       <c r="C56" s="33"/>
@@ -4195,7 +4180,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="32" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B57" s="51"/>
       <c r="C57" s="33"/>
@@ -4220,7 +4205,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="32" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B58" s="51"/>
       <c r="C58" s="33"/>
@@ -4245,7 +4230,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="32" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B59" s="51"/>
       <c r="C59" s="33"/>
@@ -4270,7 +4255,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="32" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B60" s="51"/>
       <c r="C60" s="33"/>
@@ -4295,7 +4280,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="32" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B61" s="51"/>
       <c r="C61" s="33"/>
@@ -4320,7 +4305,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="32" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B62" s="51"/>
       <c r="C62" s="33"/>
@@ -4345,7 +4330,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="32" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B63" s="51"/>
       <c r="C63" s="33"/>
@@ -4364,13 +4349,13 @@
       <c r="H63" s="41"/>
       <c r="I63" s="37"/>
       <c r="J63" s="30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J63:J76" si="2">IF(F63="","","|**"&amp;E63&amp;"**|Le _SYSTEME_ doit : "&amp;F63&amp;"|"&amp;G63&amp;"|"&amp;H63&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="32" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B64" s="51"/>
       <c r="C64" s="33"/>
@@ -4389,13 +4374,13 @@
       <c r="H64" s="41"/>
       <c r="I64" s="37"/>
       <c r="J64" s="30" t="str">
-        <f t="shared" ref="J64:J77" si="2">IF(F64="","","|**"&amp;E64&amp;"**|Le _SYSTEME_ doit : "&amp;F64&amp;"|"&amp;G64&amp;"|"&amp;H64&amp;"|")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="32" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B65" s="51"/>
       <c r="C65" s="33"/>
@@ -4408,9 +4393,7 @@
         <v/>
       </c>
       <c r="F65" s="34"/>
-      <c r="G65" s="35" t="s">
-        <v>51</v>
-      </c>
+      <c r="G65" s="35"/>
       <c r="H65" s="41"/>
       <c r="I65" s="37"/>
       <c r="J65" s="30" t="str">
@@ -4420,7 +4403,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="32" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B66" s="51"/>
       <c r="C66" s="33"/>
@@ -4443,7 +4426,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="32" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B67" s="51"/>
       <c r="C67" s="33"/>
@@ -4466,7 +4449,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="32" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B68" s="51"/>
       <c r="C68" s="33"/>
@@ -4489,7 +4472,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="32" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B69" s="51"/>
       <c r="C69" s="33"/>
@@ -4512,7 +4495,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="32" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="B70" s="51"/>
       <c r="C70" s="33"/>
@@ -4535,7 +4518,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="32" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B71" s="51"/>
       <c r="C71" s="33"/>
@@ -4558,7 +4541,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="32" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B72" s="51"/>
       <c r="C72" s="33"/>
@@ -4581,7 +4564,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="32" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B73" s="51"/>
       <c r="C73" s="33"/>
@@ -4604,7 +4587,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="32" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B74" s="51"/>
       <c r="C74" s="33"/>
@@ -4627,7 +4610,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="32" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B75" s="51"/>
       <c r="C75" s="33"/>
@@ -4650,7 +4633,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="32" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B76" s="51"/>
       <c r="C76" s="33"/>
@@ -4673,7 +4656,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="32" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B77" s="51"/>
       <c r="C77" s="33"/>
@@ -4690,13 +4673,13 @@
       <c r="H77" s="41"/>
       <c r="I77" s="37"/>
       <c r="J77" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J77:J89" si="3">IF(F77="","","|**"&amp;E77&amp;"**|"&amp;D77&amp;"|Le _SYSTEME_ doit : "&amp;F77&amp;"|"&amp;G77&amp;"|"&amp;H77&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="32" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B78" s="51"/>
       <c r="C78" s="33"/>
@@ -4713,13 +4696,13 @@
       <c r="H78" s="41"/>
       <c r="I78" s="37"/>
       <c r="J78" s="30" t="str">
-        <f t="shared" ref="J78:J90" si="3">IF(F78="","","|**"&amp;E78&amp;"**|"&amp;D78&amp;"|Le _SYSTEME_ doit : "&amp;F78&amp;"|"&amp;G78&amp;"|"&amp;H78&amp;"|")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="32" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B79" s="51"/>
       <c r="C79" s="33"/>
@@ -4742,7 +4725,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="32" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B80" s="51"/>
       <c r="C80" s="33"/>
@@ -4765,7 +4748,7 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="32" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="B81" s="51"/>
       <c r="C81" s="33"/>
@@ -4788,7 +4771,7 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="32" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="B82" s="51"/>
       <c r="C82" s="33"/>
@@ -4811,7 +4794,7 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="32" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B83" s="51"/>
       <c r="C83" s="33"/>
@@ -4834,7 +4817,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="32" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B84" s="51"/>
       <c r="C84" s="33"/>
@@ -4857,7 +4840,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="32" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B85" s="51"/>
       <c r="C85" s="33"/>
@@ -4880,7 +4863,7 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="32" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B86" s="51"/>
       <c r="C86" s="33"/>
@@ -4903,7 +4886,7 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="32" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="B87" s="51"/>
       <c r="C87" s="33"/>
@@ -4926,7 +4909,7 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="32" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B88" s="51"/>
       <c r="C88" s="33"/>
@@ -4949,7 +4932,7 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="32" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B89" s="51"/>
       <c r="C89" s="33"/>
@@ -4972,50 +4955,30 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="32" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="B90" s="51"/>
-      <c r="C90" s="33"/>
-      <c r="D90" s="52" t="str">
-        <f>IF(B90="","",VLOOKUP(B90,'00 - Technical Parameter'!$D$6:$F$57,3))</f>
-        <v/>
-      </c>
-      <c r="E90" s="36" t="str">
-        <f>IF(B90="","",'00 - Technical Parameter'!$B$3&amp;"_"&amp;$B$2&amp;"_"&amp;A90)</f>
-        <v/>
-      </c>
+      <c r="C90" s="50"/>
+      <c r="D90" s="52"/>
+      <c r="E90" s="36"/>
       <c r="F90" s="34"/>
-      <c r="G90" s="35"/>
-      <c r="H90" s="41"/>
-      <c r="I90" s="37"/>
-      <c r="J90" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G90" s="53"/>
+      <c r="H90" s="54"/>
+    </row>
+    <row r="91" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="32" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B91" s="51"/>
       <c r="C91" s="50"/>
-      <c r="D91" s="52"/>
-      <c r="E91" s="36"/>
-      <c r="F91" s="34"/>
-      <c r="G91" s="53"/>
-      <c r="H91" s="54"/>
-    </row>
-    <row r="92" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="32" t="s">
-        <v>192</v>
-      </c>
-      <c r="B92" s="51"/>
-      <c r="C92" s="50"/>
-      <c r="D92" s="55"/>
-      <c r="E92" s="56"/>
-      <c r="F92" s="42"/>
-      <c r="G92" s="57"/>
-      <c r="H92" s="58"/>
+      <c r="D91" s="55"/>
+      <c r="E91" s="56"/>
+      <c r="F91" s="42"/>
+      <c r="G91" s="57"/>
+      <c r="H91" s="58"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92" s="32"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="32"/>
@@ -5029,17 +4992,14 @@
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="32"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="32"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A4:B97" xr:uid="{311966ED-1EC1-AE43-8D85-720F186E80ED}"/>
+  <autoFilter ref="A4:B96" xr:uid="{311966ED-1EC1-AE43-8D85-720F186E80ED}"/>
   <phoneticPr fontId="29" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:I90" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:I89" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>CRITICITY</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B92" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B91" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>AREA</formula1>
     </dataValidation>
   </dataValidations>
